--- a/labware/labware_offsets/labware_offset.xlsx
+++ b/labware/labware_offsets/labware_offset.xlsx
@@ -1,28 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\zeus.nioz.nl\mmb\molecular_ecology\data_from_lab_instruments\Opentrons_robots\1labware_DO_NOT_TOUCH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://joinnioz-my.sharepoint.com/personal/maartje_brouwer_nioz_nl/Documents/Documenten/GitHub/OT2/labware/labware_offsets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1B0E560-81CB-42BF-8999-EB4EC9A50525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{C1B0E560-81CB-42BF-8999-EB4EC9A50525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEF75335-7130-4296-8A2F-E8995D1D53A7}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="15390" windowHeight="9562" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WALL_E" sheetId="3" r:id="rId1"/>
     <sheet name="EVE" sheetId="2" r:id="rId2"/>
     <sheet name="MO" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
   <si>
     <t>labware</t>
   </si>
@@ -39,61 +50,22 @@
     <t>filtertips_20</t>
   </si>
   <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>-0.2</t>
-  </si>
-  <si>
     <t>filtertips_200</t>
   </si>
   <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
     <t>plate_96</t>
   </si>
   <si>
-    <t>0.4</t>
-  </si>
-  <si>
     <t>plate_plateholder</t>
   </si>
   <si>
-    <t>-0.8</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
     <t>pcr_strips</t>
   </si>
   <si>
-    <t>-0.6</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
     <t>1.5mL_tubes</t>
   </si>
   <si>
-    <t>1.2</t>
-  </si>
-  <si>
     <t>5mL_screw_cap</t>
-  </si>
-  <si>
-    <t>9.6</t>
   </si>
   <si>
     <t>15mL_tubes</t>
@@ -114,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -592,8 +564,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -948,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -987,7 +960,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1001,7 +974,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1015,7 +988,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1029,7 +1002,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1043,7 +1016,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1057,7 +1030,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1071,7 +1044,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1085,7 +1058,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1103,10 +1076,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1142,7 +1115,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1156,7 +1129,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1170,7 +1143,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1184,7 +1157,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1198,7 +1171,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1212,7 +1185,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1226,7 +1199,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1240,7 +1213,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1258,14 +1231,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -1285,117 +1261,117 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="B2">
+        <v>0.4</v>
+      </c>
+      <c r="C2">
+        <v>1.6</v>
+      </c>
+      <c r="D2">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>0.8</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>-0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.7</v>
+      </c>
+      <c r="D4">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
+        <v>0.7</v>
+      </c>
+      <c r="C5">
+        <v>-0.5</v>
+      </c>
+      <c r="D5">
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>-0.2</v>
+      </c>
+      <c r="D6">
+        <v>1.4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>-0.2</v>
+      </c>
+      <c r="C7">
+        <v>1.3</v>
+      </c>
+      <c r="D7">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
+        <v>0.9</v>
+      </c>
+      <c r="D8">
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>0</v>

--- a/labware/labware_offsets/labware_offset.xlsx
+++ b/labware/labware_offsets/labware_offset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://joinnioz-my.sharepoint.com/personal/maartje_brouwer_nioz_nl/Documents/Documenten/GitHub/OT2/labware/labware_offsets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{C1B0E560-81CB-42BF-8999-EB4EC9A50525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEF75335-7130-4296-8A2F-E8995D1D53A7}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{C1B0E560-81CB-42BF-8999-EB4EC9A50525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6998B4A9-D3D2-44DA-9901-D718B0913FED}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="15390" windowHeight="9562" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1808" yWindow="1808" windowWidth="15389" windowHeight="9562" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WALL_E" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
   <si>
     <t>labware</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>50mL_tubes</t>
+  </si>
+  <si>
+    <t>15mL_50mLtubes</t>
   </si>
 </sst>
 </file>
@@ -922,13 +925,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B2:D10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="14.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -949,13 +955,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -963,13 +969,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -977,13 +983,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -991,13 +997,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -1005,13 +1011,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -1019,13 +1025,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -1033,13 +1039,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -1068,6 +1074,20 @@
       </c>
       <c r="D10">
         <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.2</v>
+      </c>
+      <c r="C11">
+        <v>1.5</v>
+      </c>
+      <c r="D11">
+        <v>-0.8</v>
       </c>
     </row>
   </sheetData>
@@ -1077,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1223,6 +1243,11 @@
       </c>
       <c r="D10">
         <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1383,6 +1408,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
